--- a/CAD Database Creation Tool/CAD Database Creation Tool/ReverseEngineeringTests.xlsx
+++ b/CAD Database Creation Tool/CAD Database Creation Tool/ReverseEngineeringTests.xlsx
@@ -14,33 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>bPart Name</t>
-  </si>
-  <si>
-    <t>Part Volume</t>
-  </si>
-  <si>
-    <t>Bounding Box Volume</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>X Length</t>
-  </si>
-  <si>
-    <t>Y Length</t>
-  </si>
-  <si>
-    <t>Surface Area</t>
-  </si>
-  <si>
-    <t>Bottom Area</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>FRAME 1.stl</t>
+  </si>
+  <si>
+    <t>jug.stl</t>
+  </si>
+  <si>
+    <t>Leo.stl</t>
+  </si>
+  <si>
+    <t>LoLtreasurev02.stl</t>
+  </si>
+  <si>
+    <t>PlasticBottle.stl</t>
   </si>
   <si>
     <t>scew_model_test.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.05.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.1.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.15.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.2.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.25.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.27.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.3.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.33.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.4.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.5.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.6.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.67.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.8.stl</t>
+  </si>
+  <si>
+    <t>scew_model_test_.9.stl</t>
+  </si>
+  <si>
+    <t>waterPump.stl</t>
   </si>
 </sst>
 </file>
@@ -372,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,52 +418,546 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="B1">
+        <v>131293.2327803425</v>
+      </c>
+      <c r="C1">
+        <v>439040</v>
+      </c>
+      <c r="D1">
+        <v>35</v>
+      </c>
+      <c r="E1">
+        <v>112</v>
+      </c>
+      <c r="F1">
+        <v>112</v>
+      </c>
+      <c r="G1">
+        <v>37330.79193073035</v>
+      </c>
+      <c r="H1">
+        <v>12544</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1691.291561640925</v>
+      </c>
+      <c r="C2">
+        <v>136142.9772500462</v>
+      </c>
+      <c r="D2">
+        <v>54.35069847106934</v>
+      </c>
+      <c r="E2">
+        <v>59.8774995803833</v>
+      </c>
+      <c r="F2">
+        <v>41.83371734619141</v>
+      </c>
+      <c r="G2">
+        <v>15744.07744370512</v>
+      </c>
+      <c r="H2">
+        <v>2504.89839284245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>46468133.26706824</v>
+      </c>
+      <c r="C4">
+        <v>247868670.3538724</v>
+      </c>
+      <c r="D4">
+        <v>1030.426845468581</v>
+      </c>
+      <c r="E4">
+        <v>385.8899688720703</v>
+      </c>
+      <c r="F4">
+        <v>623.3629455566406</v>
+      </c>
+      <c r="G4">
+        <v>1620290.84981412</v>
+      </c>
+      <c r="H4">
+        <v>240549.5076568541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>50350.07114816874</v>
+      </c>
+      <c r="C7">
+        <v>171986.4360578173</v>
+      </c>
+      <c r="D7">
+        <v>56.09999847412109</v>
+      </c>
+      <c r="E7">
+        <v>52.67546463012695</v>
+      </c>
+      <c r="F7">
+        <v>58.19999837875366</v>
+      </c>
+      <c r="G7">
+        <v>26966.334301051</v>
+      </c>
+      <c r="H7">
+        <v>3065.711956073485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>350886.1602802682</v>
+      </c>
+      <c r="C9">
+        <v>12063966.08873647</v>
+      </c>
+      <c r="D9">
+        <v>125.6901550292969</v>
+      </c>
+      <c r="E9">
+        <v>276.9418792724609</v>
+      </c>
+      <c r="F9">
+        <v>346.5773773193359</v>
+      </c>
+      <c r="G9">
+        <v>450771.5386529238</v>
+      </c>
+      <c r="H9">
+        <v>95981.79018813767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>287274.7101853613</v>
+      </c>
+      <c r="C10">
+        <v>994778.0624718696</v>
+      </c>
+      <c r="D10">
+        <v>99.49747467041016</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>99.98023223876953</v>
+      </c>
+      <c r="G10">
+        <v>31530.1999097709</v>
+      </c>
+      <c r="H10">
+        <v>9998.023223876953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>34.81941174655806</v>
+      </c>
+      <c r="C12">
+        <v>124.3718445301056</v>
+      </c>
+      <c r="D12">
+        <v>4.974873781204224</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>77.76954653318438</v>
+      </c>
+      <c r="H12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>281.5542542359444</v>
+      </c>
+      <c r="C14">
+        <v>993.0114247625943</v>
+      </c>
+      <c r="D14">
+        <v>9.949747562408447</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>9.980267524719238</v>
+      </c>
+      <c r="G14">
+        <v>312.4816633545896</v>
+      </c>
+      <c r="H14">
+        <v>99.80267524719238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>287274.7101853613</v>
-      </c>
-      <c r="C2">
-        <v>994778.0624718696</v>
-      </c>
-      <c r="D2">
-        <v>99.49747467041016</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>99.98023223876953</v>
-      </c>
-      <c r="G2">
-        <v>31530.1999097709</v>
-      </c>
-      <c r="H2">
-        <v>9998.023223876953</v>
+      <c r="B16">
+        <v>956.6297567888092</v>
+      </c>
+      <c r="C16">
+        <v>3353.729642617154</v>
+      </c>
+      <c r="D16">
+        <v>14.92462110519409</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>14.98074722290039</v>
+      </c>
+      <c r="G16">
+        <v>705.5259018910456</v>
+      </c>
+      <c r="H16">
+        <v>224.7112083435059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2279.687409587514</v>
+      </c>
+      <c r="C18">
+        <v>7959.798049926758</v>
+      </c>
+      <c r="D18">
+        <v>19.89949512481689</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>1256.921111356592</v>
+      </c>
+      <c r="H18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>4456.588203935825</v>
+      </c>
+      <c r="C20">
+        <v>15546.48041725159</v>
+      </c>
+      <c r="D20">
+        <v>24.87436866760254</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>1964.926861406942</v>
+      </c>
+      <c r="H20">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>5620.93498220814</v>
+      </c>
+      <c r="C22">
+        <v>19569.71626105188</v>
+      </c>
+      <c r="D22">
+        <v>26.86431789398193</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>26.98018646240234</v>
+      </c>
+      <c r="G22">
+        <v>2292.606655502997</v>
+      </c>
+      <c r="H22">
+        <v>728.4650344848633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>7714.080748821543</v>
+      </c>
+      <c r="C24">
+        <v>26864.31798934937</v>
+      </c>
+      <c r="D24">
+        <v>29.84924221038818</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>2831.08226694326</v>
+      </c>
+      <c r="H24">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>10278.13713234157</v>
+      </c>
+      <c r="C26">
+        <v>35673.05153032648</v>
+      </c>
+      <c r="D26">
+        <v>32.83416748046875</v>
+      </c>
+      <c r="E26">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>32.92306900024414</v>
+      </c>
+      <c r="G26">
+        <v>3426.953923266994</v>
+      </c>
+      <c r="H26">
+        <v>1086.461277008057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <v>18324.61568010825</v>
+      </c>
+      <c r="C28">
+        <v>63552.73118480603</v>
+      </c>
+      <c r="D28">
+        <v>39.79899024963379</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>39.92107009887695</v>
+      </c>
+      <c r="G28">
+        <v>5038.472058637341</v>
+      </c>
+      <c r="H28">
+        <v>1596.842803955078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>35826.44822405747</v>
+      </c>
+      <c r="C30">
+        <v>124371.8433380127</v>
+      </c>
+      <c r="D30">
+        <v>49.74873733520508</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>7875.819734146831</v>
+      </c>
+      <c r="H30">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>61950.82762843699</v>
+      </c>
+      <c r="C32">
+        <v>214843.2866829862</v>
+      </c>
+      <c r="D32">
+        <v>59.69848442077637</v>
+      </c>
+      <c r="E32">
+        <v>60</v>
+      </c>
+      <c r="F32">
+        <v>59.98010635375977</v>
+      </c>
+      <c r="G32">
+        <v>11343.79807751533</v>
+      </c>
+      <c r="H32">
+        <v>3598.806381225586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>86304.7603554067</v>
+      </c>
+      <c r="C34">
+        <v>299164.214483524</v>
+      </c>
+      <c r="D34">
+        <v>66.66330718994141</v>
+      </c>
+      <c r="E34">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>66.98043823242188</v>
+      </c>
+      <c r="G34">
+        <v>14147.7536170713</v>
+      </c>
+      <c r="H34">
+        <v>4487.689361572266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>147022.2427426623</v>
+      </c>
+      <c r="C36">
+        <v>509302.4118542718</v>
+      </c>
+      <c r="D36">
+        <v>79.59798049926758</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>79.98042297363281</v>
+      </c>
+      <c r="G36">
+        <v>20176.45317818065</v>
+      </c>
+      <c r="H36">
+        <v>6398.433837890625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>209399.100684967</v>
+      </c>
+      <c r="C38">
+        <v>725177.5097124521</v>
+      </c>
+      <c r="D38">
+        <v>89.54772567749023</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>89.98026275634766</v>
+      </c>
+      <c r="G38">
+        <v>25538.39649012632</v>
+      </c>
+      <c r="H38">
+        <v>8098.223648071289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>131355.3442284274</v>
+      </c>
+      <c r="C40">
+        <v>672095.6663593358</v>
+      </c>
+      <c r="D40">
+        <v>41.38063430786133</v>
+      </c>
+      <c r="E40">
+        <v>143.6531867980957</v>
+      </c>
+      <c r="F40">
+        <v>113.0625267028809</v>
+      </c>
+      <c r="G40">
+        <v>36109.07695691389</v>
+      </c>
+      <c r="H40">
+        <v>16241.79226831363</v>
       </c>
     </row>
   </sheetData>

--- a/CAD Database Creation Tool/CAD Database Creation Tool/ReverseEngineeringTests.xlsx
+++ b/CAD Database Creation Tool/CAD Database Creation Tool/ReverseEngineeringTests.xlsx
@@ -1,20 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\STLGeometry-to-Excel\CAD Database Creation Tool\CAD Database Creation Tool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9220C1-1F9C-4CFA-A567-F47157FE8BAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Part Volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Bounding Box Volume (mm^3)</t>
+  </si>
+  <si>
+    <t>Height (mm)</t>
+  </si>
+  <si>
+    <t>x Length (mm)</t>
+  </si>
+  <si>
+    <t>y Length (mm)</t>
+  </si>
+  <si>
+    <t>Surface Area (mm^2)</t>
+  </si>
+  <si>
+    <t>Bottom Area (mm^2)</t>
+  </si>
   <si>
     <t>FRAME 1.stl</t>
   </si>
@@ -82,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +146,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +236,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +288,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,557 +481,593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>131293.2327803425</v>
-      </c>
-      <c r="C1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>131293.23278034251</v>
+      </c>
+      <c r="C2">
         <v>439040</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>35</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>112</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>112</v>
       </c>
-      <c r="G1">
-        <v>37330.79193073035</v>
-      </c>
-      <c r="H1">
+      <c r="G2">
+        <v>37330.791930730353</v>
+      </c>
+      <c r="H2">
         <v>12544</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>1691.291561640925</v>
       </c>
-      <c r="C2">
-        <v>136142.9772500462</v>
-      </c>
-      <c r="D2">
-        <v>54.35069847106934</v>
-      </c>
-      <c r="E2">
-        <v>59.8774995803833</v>
-      </c>
-      <c r="F2">
-        <v>41.83371734619141</v>
-      </c>
-      <c r="G2">
+      <c r="C3">
+        <v>136142.97725004621</v>
+      </c>
+      <c r="D3">
+        <v>54.350698471069343</v>
+      </c>
+      <c r="E3">
+        <v>59.877499580383301</v>
+      </c>
+      <c r="F3">
+        <v>41.833717346191413</v>
+      </c>
+      <c r="G3">
         <v>15744.07744370512</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>2504.89839284245</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>46468133.26706824</v>
+        <v>46468133.267068237</v>
       </c>
       <c r="C4">
-        <v>247868670.3538724</v>
+        <v>247868670.35387239</v>
       </c>
       <c r="D4">
         <v>1030.426845468581</v>
       </c>
       <c r="E4">
-        <v>385.8899688720703</v>
+        <v>385.88996887207031</v>
       </c>
       <c r="F4">
-        <v>623.3629455566406</v>
+        <v>623.36294555664063</v>
       </c>
       <c r="G4">
         <v>1620290.84981412</v>
       </c>
       <c r="H4">
-        <v>240549.5076568541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>240549.50765685411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>50350.071148168739</v>
+      </c>
+      <c r="C5">
+        <v>171986.43605781731</v>
+      </c>
+      <c r="D5">
+        <v>56.099998474121087</v>
+      </c>
+      <c r="E5">
+        <v>52.675464630126953</v>
+      </c>
+      <c r="F5">
+        <v>58.199998378753662</v>
+      </c>
+      <c r="G5">
+        <v>26966.334301051</v>
+      </c>
+      <c r="H5">
+        <v>3065.711956073485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>350886.16028026817</v>
+      </c>
+      <c r="C6">
+        <v>12063966.088736471</v>
+      </c>
+      <c r="D6">
+        <v>125.6901550292969</v>
+      </c>
+      <c r="E6">
+        <v>276.94187927246088</v>
+      </c>
+      <c r="F6">
+        <v>346.57737731933588</v>
+      </c>
+      <c r="G6">
+        <v>450771.53865292377</v>
+      </c>
+      <c r="H6">
+        <v>95981.790188137675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>50350.07114816874</v>
+        <v>287274.71018536133</v>
       </c>
       <c r="C7">
-        <v>171986.4360578173</v>
+        <v>994778.06247186963</v>
       </c>
       <c r="D7">
-        <v>56.09999847412109</v>
+        <v>99.497474670410156</v>
       </c>
       <c r="E7">
-        <v>52.67546463012695</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>58.19999837875366</v>
+        <v>99.980232238769531</v>
       </c>
       <c r="G7">
-        <v>26966.334301051</v>
+        <v>31530.199909770901</v>
       </c>
       <c r="H7">
-        <v>3065.711956073485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>9998.0232238769531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>34.81941174655806</v>
+      </c>
+      <c r="C8">
+        <v>124.37184453010561</v>
+      </c>
+      <c r="D8">
+        <v>4.9748737812042236</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>77.769546533184382</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>350886.1602802682</v>
+        <v>281.55425423594443</v>
       </c>
       <c r="C9">
-        <v>12063966.08873647</v>
+        <v>993.01142476259429</v>
       </c>
       <c r="D9">
-        <v>125.6901550292969</v>
+        <v>9.9497475624084473</v>
       </c>
       <c r="E9">
-        <v>276.9418792724609</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>346.5773773193359</v>
+        <v>9.9802675247192383</v>
       </c>
       <c r="G9">
-        <v>450771.5386529238</v>
+        <v>312.48166335458961</v>
       </c>
       <c r="H9">
-        <v>95981.79018813767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>99.802675247192383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>287274.7101853613</v>
+        <v>956.62975678880923</v>
       </c>
       <c r="C10">
-        <v>994778.0624718696</v>
+        <v>3353.7296426171538</v>
       </c>
       <c r="D10">
-        <v>99.49747467041016</v>
+        <v>14.92462110519409</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>99.98023223876953</v>
+        <v>14.980747222900391</v>
       </c>
       <c r="G10">
-        <v>31530.1999097709</v>
+        <v>705.52590189104558</v>
       </c>
       <c r="H10">
-        <v>9998.023223876953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>224.71120834350589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2279.6874095875141</v>
+      </c>
+      <c r="C11">
+        <v>7959.7980499267578</v>
+      </c>
+      <c r="D11">
+        <v>19.899495124816891</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>1256.9211113565921</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>34.81941174655806</v>
+        <v>4456.5882039358248</v>
       </c>
       <c r="C12">
-        <v>124.3718445301056</v>
+        <v>15546.480417251591</v>
       </c>
       <c r="D12">
-        <v>4.974873781204224</v>
+        <v>24.874368667602539</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G12">
-        <v>77.76954653318438</v>
+        <v>1964.926861406942</v>
       </c>
       <c r="H12">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>5620.9349822081404</v>
+      </c>
+      <c r="C13">
+        <v>19569.716261051879</v>
+      </c>
+      <c r="D13">
+        <v>26.86431789398193</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>26.98018646240234</v>
+      </c>
+      <c r="G13">
+        <v>2292.606655502997</v>
+      </c>
+      <c r="H13">
+        <v>728.46503448486328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>7714.0807488215432</v>
+      </c>
+      <c r="C14">
+        <v>26864.317989349369</v>
+      </c>
+      <c r="D14">
+        <v>29.84924221038818</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>2831.08226694326</v>
+      </c>
+      <c r="H14">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>10278.13713234157</v>
+      </c>
+      <c r="C15">
+        <v>35673.051530326476</v>
+      </c>
+      <c r="D15">
+        <v>32.83416748046875</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15">
+        <v>32.923069000244141</v>
+      </c>
+      <c r="G15">
+        <v>3426.953923266994</v>
+      </c>
+      <c r="H15">
+        <v>1086.4612770080571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>18324.615680108251</v>
+      </c>
+      <c r="C16">
+        <v>63552.731184806027</v>
+      </c>
+      <c r="D16">
+        <v>39.798990249633789</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>39.921070098876953</v>
+      </c>
+      <c r="G16">
+        <v>5038.4720586373414</v>
+      </c>
+      <c r="H16">
+        <v>1596.8428039550779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>35826.448224057473</v>
+      </c>
+      <c r="C17">
+        <v>124371.8433380127</v>
+      </c>
+      <c r="D17">
+        <v>49.748737335205078</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>7875.8197341468313</v>
+      </c>
+      <c r="H17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>61950.827628436993</v>
+      </c>
+      <c r="C18">
+        <v>214843.28668298619</v>
+      </c>
+      <c r="D18">
+        <v>59.698484420776367</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>59.980106353759773</v>
+      </c>
+      <c r="G18">
+        <v>11343.79807751533</v>
+      </c>
+      <c r="H18">
+        <v>3598.8063812255859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>281.5542542359444</v>
-      </c>
-      <c r="C14">
-        <v>993.0114247625943</v>
-      </c>
-      <c r="D14">
-        <v>9.949747562408447</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>9.980267524719238</v>
-      </c>
-      <c r="G14">
-        <v>312.4816633545896</v>
-      </c>
-      <c r="H14">
-        <v>99.80267524719238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>956.6297567888092</v>
-      </c>
-      <c r="C16">
-        <v>3353.729642617154</v>
-      </c>
-      <c r="D16">
-        <v>14.92462110519409</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>14.98074722290039</v>
-      </c>
-      <c r="G16">
-        <v>705.5259018910456</v>
-      </c>
-      <c r="H16">
-        <v>224.7112083435059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>2279.687409587514</v>
-      </c>
-      <c r="C18">
-        <v>7959.798049926758</v>
-      </c>
-      <c r="D18">
-        <v>19.89949512481689</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>1256.921111356592</v>
-      </c>
-      <c r="H18">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="B19">
+        <v>86304.760355406703</v>
+      </c>
+      <c r="C19">
+        <v>299164.21448352397</v>
+      </c>
+      <c r="D19">
+        <v>66.663307189941406</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>66.980438232421875</v>
+      </c>
+      <c r="G19">
+        <v>14147.753617071299</v>
+      </c>
+      <c r="H19">
+        <v>4487.6893615722656</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>4456.588203935825</v>
+        <v>147022.24274266229</v>
       </c>
       <c r="C20">
-        <v>15546.48041725159</v>
+        <v>509302.41185427178</v>
       </c>
       <c r="D20">
-        <v>24.87436866760254</v>
+        <v>79.597980499267578</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>79.980422973632813</v>
       </c>
       <c r="G20">
-        <v>1964.926861406942</v>
+        <v>20176.453178180651</v>
       </c>
       <c r="H20">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>6398.433837890625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>209399.10068496701</v>
+      </c>
+      <c r="C21">
+        <v>725177.50971245207</v>
+      </c>
+      <c r="D21">
+        <v>89.547725677490234</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>89.980262756347656</v>
+      </c>
+      <c r="G21">
+        <v>25538.396490126321</v>
+      </c>
+      <c r="H21">
+        <v>8098.2236480712891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>5620.93498220814</v>
+        <v>131355.34422842739</v>
       </c>
       <c r="C22">
-        <v>19569.71626105188</v>
+        <v>672095.66635933577</v>
       </c>
       <c r="D22">
-        <v>26.86431789398193</v>
+        <v>41.380634307861328</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>143.6531867980957</v>
       </c>
       <c r="F22">
-        <v>26.98018646240234</v>
+        <v>113.0625267028809</v>
       </c>
       <c r="G22">
-        <v>2292.606655502997</v>
+        <v>36109.076956913887</v>
       </c>
       <c r="H22">
-        <v>728.4650344848633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>7714.080748821543</v>
-      </c>
-      <c r="C24">
-        <v>26864.31798934937</v>
-      </c>
-      <c r="D24">
-        <v>29.84924221038818</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <v>2831.08226694326</v>
-      </c>
-      <c r="H24">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>10278.13713234157</v>
-      </c>
-      <c r="C26">
-        <v>35673.05153032648</v>
-      </c>
-      <c r="D26">
-        <v>32.83416748046875</v>
-      </c>
-      <c r="E26">
-        <v>33</v>
-      </c>
-      <c r="F26">
-        <v>32.92306900024414</v>
-      </c>
-      <c r="G26">
-        <v>3426.953923266994</v>
-      </c>
-      <c r="H26">
-        <v>1086.461277008057</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>18324.61568010825</v>
-      </c>
-      <c r="C28">
-        <v>63552.73118480603</v>
-      </c>
-      <c r="D28">
-        <v>39.79899024963379</v>
-      </c>
-      <c r="E28">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>39.92107009887695</v>
-      </c>
-      <c r="G28">
-        <v>5038.472058637341</v>
-      </c>
-      <c r="H28">
-        <v>1596.842803955078</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30">
-        <v>35826.44822405747</v>
-      </c>
-      <c r="C30">
-        <v>124371.8433380127</v>
-      </c>
-      <c r="D30">
-        <v>49.74873733520508</v>
-      </c>
-      <c r="E30">
-        <v>50</v>
-      </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>7875.819734146831</v>
-      </c>
-      <c r="H30">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32">
-        <v>61950.82762843699</v>
-      </c>
-      <c r="C32">
-        <v>214843.2866829862</v>
-      </c>
-      <c r="D32">
-        <v>59.69848442077637</v>
-      </c>
-      <c r="E32">
-        <v>60</v>
-      </c>
-      <c r="F32">
-        <v>59.98010635375977</v>
-      </c>
-      <c r="G32">
-        <v>11343.79807751533</v>
-      </c>
-      <c r="H32">
-        <v>3598.806381225586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34">
-        <v>86304.7603554067</v>
-      </c>
-      <c r="C34">
-        <v>299164.214483524</v>
-      </c>
-      <c r="D34">
-        <v>66.66330718994141</v>
-      </c>
-      <c r="E34">
-        <v>67</v>
-      </c>
-      <c r="F34">
-        <v>66.98043823242188</v>
-      </c>
-      <c r="G34">
-        <v>14147.7536170713</v>
-      </c>
-      <c r="H34">
-        <v>4487.689361572266</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36">
-        <v>147022.2427426623</v>
-      </c>
-      <c r="C36">
-        <v>509302.4118542718</v>
-      </c>
-      <c r="D36">
-        <v>79.59798049926758</v>
-      </c>
-      <c r="E36">
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <v>79.98042297363281</v>
-      </c>
-      <c r="G36">
-        <v>20176.45317818065</v>
-      </c>
-      <c r="H36">
-        <v>6398.433837890625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38">
-        <v>209399.100684967</v>
-      </c>
-      <c r="C38">
-        <v>725177.5097124521</v>
-      </c>
-      <c r="D38">
-        <v>89.54772567749023</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38">
-        <v>89.98026275634766</v>
-      </c>
-      <c r="G38">
-        <v>25538.39649012632</v>
-      </c>
-      <c r="H38">
-        <v>8098.223648071289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40">
-        <v>131355.3442284274</v>
-      </c>
-      <c r="C40">
-        <v>672095.6663593358</v>
-      </c>
-      <c r="D40">
-        <v>41.38063430786133</v>
-      </c>
-      <c r="E40">
-        <v>143.6531867980957</v>
-      </c>
-      <c r="F40">
-        <v>113.0625267028809</v>
-      </c>
-      <c r="G40">
-        <v>36109.07695691389</v>
-      </c>
-      <c r="H40">
-        <v>16241.79226831363</v>
+        <v>16241.792268313629</v>
       </c>
     </row>
   </sheetData>
